--- a/templates/Module_2_Template.xlsx
+++ b/templates/Module_2_Template.xlsx
@@ -10990,7 +10990,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C69A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="L4 Q8:R15 E8:P14 D13:D14 D8:D11" name="Range1"/>
   </protectedRanges>
@@ -11367,7 +11366,6 @@
       <c r="L18" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="67ppQkb7VTxHchLbappaIPD4vTJHhwDrEt+rTSl5Rti1oAleJVq3R1WwNKsqoWk4NBYju8sn8Fg9JhIGZ4RXwg==" saltValue="A9f3cWnFnDYEHTr5md6zmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="E10:F10"/>
@@ -12404,7 +12402,6 @@
     </row>
     <row r="51" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UIjkgdWgU+EY93bBYOm8Wpxoe5Siwpaqy0iJoh3sen0xv5i/nUZEIOoI/CitIaKEoOghSOBn6spbtQu4KIKScA==" saltValue="g7cDX1oT9mrf0BRddSlUJQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
